--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA55EB8-711C-4F7A-9776-49A1F1F3F378}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EB34AFA-74CA-478C-B87B-DAE24EAEAE2E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,14 @@
   </si>
   <si>
     <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_3.png</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSpeedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,10 +461,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
@@ -469,8 +469,8 @@
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="DamageRate" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="0"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -932,7 +932,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
@@ -1002,10 +1002,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1057,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>170</v>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EB34AFA-74CA-478C-B87B-DAE24EAEAE2E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E31B3C-15A8-4854-9DA4-7DE747C58422}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -179,11 +179,11 @@
     <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_3.png</t>
   </si>
   <si>
-    <t>DamageRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillSpeedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamageRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,6 +461,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
@@ -469,7 +473,7 @@
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="DamageRate" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="1"/>
@@ -912,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1002,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E31B3C-15A8-4854-9DA4-7DE747C58422}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11C3300-C870-4635-A17A-D9BCB6763B6A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11C3300-C870-4635-A17A-D9BCB6763B6A}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6E4A92-F63A-4062-8487-AD645BEB69DD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="SkillTable" sheetId="3" r:id="rId2"/>
+    <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
-  <si>
-    <t>ALL:KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>ALL</t>
   </si>
@@ -39,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DESIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,21 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PenetrateTaget</t>
-  </si>
-  <si>
     <t>파이어볼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,38 +59,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 인덱스 값입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름이 들어가는 주석입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름을 스트링테이블에서 가져옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 데미지 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 공격 속도입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 사거리 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 스피드 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체가 맞는 대상의 수입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +145,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -246,17 +179,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,332 +709,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6329419-DE25-48C7-9BB0-F65E2B49D800}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>10001</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>10002</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
         <v>170</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>10003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
         <v>200</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1000</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>1000</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6E4A92-F63A-4062-8487-AD645BEB69DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BF5F2-7978-4A57-BAFB-2D0760EB233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="1785" yWindow="3315" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ALL</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>SkillDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballRedOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningBoltMissileYellowOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserBigBlueOBJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +217,23 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -396,18 +436,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,13 +751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -727,10 +768,11 @@
     <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="10" max="10" width="24" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,8 +832,11 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,8 +864,11 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -845,8 +896,11 @@
       <c r="I4" s="1">
         <v>1000</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -874,8 +928,11 @@
       <c r="I5" s="1">
         <v>1000</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -902,6 +959,9 @@
       </c>
       <c r="I6" s="1">
         <v>1000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BF5F2-7978-4A57-BAFB-2D0760EB233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="3315" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="2205" windowWidth="18645" windowHeight="10695" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -429,10 +429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,11 +749,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -772,7 +768,7 @@
     <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -804,7 +800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,7 +832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -868,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -900,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -932,7 +928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>10003</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BF5F2-7978-4A57-BAFB-2D0760EB233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCFE01-A10A-444E-A986-26F4FE795A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2205" yWindow="2205" windowWidth="18645" windowHeight="10695" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="17970" yWindow="255" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -110,16 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_2.png</t>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_3.png</t>
-  </si>
-  <si>
     <t>SkillSpeedRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,15 +130,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireballRedOBJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningBoltMissileYellowOBJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserBigBlueOBJ</t>
+    <t>Skills/FireballRedOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/LightningBoltMissileYellowOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/LaserBigBlueOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,16 +751,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -768,7 +770,7 @@
     <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -797,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,10 +831,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,10 +848,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -861,10 +863,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -875,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -893,10 +895,10 @@
         <v>1000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -907,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>170</v>
@@ -925,10 +927,10 @@
         <v>1000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -939,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -957,7 +959,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCFE01-A10A-444E-A986-26F4FE795A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B90A1-7232-44A2-BFE0-3654C9AC51C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="255" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
+    <sheet name="FamiliarData" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>ALL</t>
   </si>
@@ -151,6 +152,58 @@
   </si>
   <si>
     <t>SPUM/0_Flat/Icon_Flat__14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고스트나이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니페어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고스트나이트 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니페어리 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/Summon_GhostKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/Summon_MiniFairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PamiliarSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +272,139 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -434,19 +619,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A3:J8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,11 +949,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -962,6 +1160,196 @@
         <v>28</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>11001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B90A1-7232-44A2-BFE0-3654C9AC51C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64177EF4-822E-40FE-8414-CFFD8F995B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>ALL</t>
   </si>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,59 +271,59 @@
   <dxfs count="20">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -643,10 +639,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,24 +947,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="2"/>
+    <col min="11" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -997,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1014,25 +1012,25 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1046,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -1061,10 +1059,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1075,28 +1073,28 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1107,28 +1105,28 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>170</v>
+        <v>1.7</v>
       </c>
       <c r="F5" s="1">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1139,89 +1137,89 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="1">
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1">
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="1">
         <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1238,27 +1236,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1284,13 +1284,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1298,24 +1298,24 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>10004</v>
@@ -1330,12 +1330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>11002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>10005</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64177EF4-822E-40FE-8414-CFFD8F995B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A44EC-8EEC-4F2B-9C8E-F2363BC0EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="32250" yWindow="1455" windowWidth="24495" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -948,25 +948,25 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -998,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>12</v>
@@ -1190,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>12</v>
@@ -1240,17 +1240,17 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B90A1-7232-44A2-BFE0-3654C9AC51C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17574E06-43D6-43E6-BAE8-BDB05BF88D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="32250" yWindow="1455" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -191,19 +191,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PamiliarSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL;KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,59 +275,59 @@
   <dxfs count="20">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -643,10 +643,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1238,7 +1238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1258,7 +1260,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1284,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1298,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -1307,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc62\OneDrive\바탕 화면\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A44EC-8EEC-4F2B-9C8E-F2363BC0EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE6F4C-D6ED-4008-9185-9C2E6FB72943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="1455" windowWidth="24495" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>ALL</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;SkillType&gt;</t>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터벌룬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간 뒤 범위에 공격을 가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterballoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <font>
         <strike val="0"/>
@@ -324,6 +351,22 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -615,19 +658,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A3:J8" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:K9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:K9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,28 +989,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="2"/>
+    <col min="11" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -997,8 +1041,11 @@
       <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1076,11 @@
       <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,8 +1111,11 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1093,8 +1146,11 @@
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1125,8 +1181,11 @@
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1157,16 +1216,19 @@
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -1175,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1">
         <v>12</v>
@@ -1187,18 +1249,21 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -1219,7 +1284,45 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1240,17 +1343,17 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1330,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc62\OneDrive\바탕 화면\Project_Advence-main\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaehun/Documents/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE6F4C-D6ED-4008-9185-9C2E6FB72943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E21B9B-2241-D54A-8728-16E8C0DCA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,26 +991,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="11" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1339,21 +1339,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>11002</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaehun/Documents/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E21B9B-2241-D54A-8728-16E8C0DCA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B29F3-034B-4DAE-A411-AC86F9699200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,26 +991,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="2"/>
+    <col min="11" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1170,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1205,10 +1205,10 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
         <v>12</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1339,21 +1339,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B29F3-034B-4DAE-A411-AC86F9699200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49402ABE-DAF6-439C-8A99-5F7E1D741F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>ALL</t>
   </si>
@@ -227,6 +227,54 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3_NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지 1페이즈의 일반몬스터 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지 2페이즈의 일반몬스터 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3스테이지 1페이즈의 일반몬스터 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3스테이지 2페이즈의 일반몬스터 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/BigFireballPurpleOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +706,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:K9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A3:K9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:K14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:K14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="17"/>
@@ -989,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1323,6 +1371,181 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10500</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10501</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10502</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10503</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10504</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49402ABE-DAF6-439C-8A99-5F7E1D741F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E90FC3-FCE9-41FA-8B73-44855C61AD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="7005" yWindow="2145" windowWidth="29715" windowHeight="17880" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -230,26 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_1_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_3_NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2스테이지 1페이즈의 일반몬스터 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +255,26 @@
   </si>
   <si>
     <t>MonsterAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2_MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1_MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2_MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3_MA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1378,13 +1378,13 @@
         <v>10500</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1413,13 +1413,13 @@
         <v>10501</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1">
         <v>1.5</v>
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1448,13 +1448,13 @@
         <v>10502</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1472,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1483,13 +1483,13 @@
         <v>10503</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1507,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1518,13 +1518,13 @@
         <v>10504</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -1542,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E90FC3-FCE9-41FA-8B73-44855C61AD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F386C5E-6757-41BA-B94A-83EB76E5BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2145" windowWidth="29715" windowHeight="17880" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="4995" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>ALL</t>
   </si>
@@ -275,6 +275,14 @@
   </si>
   <si>
     <t>3_3_MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/WaterBalloon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,9 +749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,7 +789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -887,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1029,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1297,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F386C5E-6757-41BA-B94A-83EB76E5BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B58D0-7699-49D8-8429-640B52B98C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>ALL</t>
   </si>
@@ -230,59 +230,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2스테이지 1페이즈의 일반몬스터 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2스테이지 2페이즈의 일반몬스터 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3스테이지 1페이즈의 일반몬스터 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3스테이지 2페이즈의 일반몬스터 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skills/BigFireballPurpleOBJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1_MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2_MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1_MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2_MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_3_MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skills/WaterBalloon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCriticalDamageRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +265,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -337,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,59 +311,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -534,75 +453,143 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -714,44 +701,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:K14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A3:K14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:L9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -789,7 +777,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -895,7 +883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1045,28 +1033,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="2"/>
+    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,16 +1081,19 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1113,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -1130,13 +1122,16 @@
         <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,22 +1151,25 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1191,22 +1189,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1226,22 +1227,25 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1261,22 +1265,25 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1296,22 +1303,25 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="1">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>64</v>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1331,22 +1341,25 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1366,195 +1379,48 @@
         <v>2</v>
       </c>
       <c r="G9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10500</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10501</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10502</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10503</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10504</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1571,20 +1437,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -1624,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1664,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B58D0-7699-49D8-8429-640B52B98C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403AD27E-8AAE-4118-A979-DC67D8B88233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PamiliarSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>SkillCriticalDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamiliarSkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,6 +321,54 @@
   <dxfs count="22">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -453,6 +501,38 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -473,123 +553,43 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -701,36 +701,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:L9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A3:L9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="PamiliarSkillId" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="FamiliarSkillId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1107,28 +1107,28 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -1166,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1204,7 +1204,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1242,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1288,13 +1288,13 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -1356,7 +1356,7 @@
         <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1394,7 +1394,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1458,7 +1458,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1498,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>38</v>
@@ -1507,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403AD27E-8AAE-4118-A979-DC67D8B88233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0993C57-CF8C-4AA7-ACA9-74487860D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skills/Summon_MiniFairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>워터벌룬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +231,14 @@
   </si>
   <si>
     <t>FamiliarSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeFamiliar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeFamiliar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,27 +1035,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.59765625" style="2"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,31 +1107,31 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -1166,10 +1166,10 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1204,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1242,10 +1242,10 @@
         <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1280,21 +1280,21 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1315,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1356,10 +1356,10 @@
         <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1391,33 +1391,33 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G10" s="3"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1437,28 +1437,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1481,16 +1481,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0993C57-CF8C-4AA7-ACA9-74487860D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DC4C3-39EF-45BE-8497-BFE063CC914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>ALL</t>
   </si>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>RangeFamiliar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllowSkillEnchantKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000, 14001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +334,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -701,36 +737,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:L9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A3:L9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{28AA554E-CBE5-4A9F-9B18-2BBB6B93B138}" name="AllowSkillEnchantKey" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="FamiliarSkillId" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="FamiliarSkillId" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1047,15 +1084,16 @@
     <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="2"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1084,16 +1122,19 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -1125,13 +1166,16 @@
         <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1151,25 +1195,28 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1188,26 +1235,29 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1226,26 +1276,29 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1264,26 +1317,29 @@
       <c r="F6" s="1">
         <v>0.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1">
         <v>1.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1302,26 +1358,26 @@
       <c r="F7" s="1">
         <v>0.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1.5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1340,26 +1396,26 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>12</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1378,49 +1434,49 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>12</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="3"/>
-      <c r="K10" s="1"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G11" s="3"/>
-      <c r="K11" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="3"/>
-      <c r="K12" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="3"/>
-      <c r="K13" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="3"/>
-      <c r="K14" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
       <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DC4C3-39EF-45BE-8497-BFE063CC914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1A6B2-FED8-4456-8217-F26CD34F6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>ALL</t>
   </si>
@@ -254,7 +254,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14000, 14001</t>
+    <t>14000, 14001, 14003, 14004, 14005, 14006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000, 14001, 14002, 14003, 14004, 14005, 14006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000, 14001, 14003, 14006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14001, 14006, 14007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000, 14001, 14004, 14005, 14006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,6 +353,54 @@
   <dxfs count="23">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -405,155 +469,107 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -746,28 +762,28 @@
     <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="SkillDamageRate" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="SkillSpeedRate" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{28AA554E-CBE5-4A9F-9B18-2BBB6B93B138}" name="AllowSkillEnchantKey" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{28AA554E-CBE5-4A9F-9B18-2BBB6B93B138}" name="AllowSkillEnchantKey" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{D1EEED8C-B93D-4234-A37B-1C5D238D2902}" name="SkillCriticalDamageRate" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{B39807B8-6786-4D21-99BA-F559C9D43F14}" name="Prefab" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{6416B7CB-95C4-4726-A544-98107AEA2C1C}" name="Type" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}" name="표2_2" displayName="표2_2" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="FamiliarSkillId" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0CCCE01B-DD86-4A38-8866-8E7E571DB8DE}" name="Index" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8C5330E4-1241-48C8-A446-424BCE7ED75B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D4430CFE-5D04-4925-8188-7458009FA8C9}" name="SkillId" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{271C7B1A-C2D6-44AE-8944-0D838ED2095A}" name="MaxHp" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4AD70E75-EFF5-4514-9F13-FC46D7B5E73B}" name="MoveSpeed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{FDDFBA29-FF06-4B9B-8EFB-9342CB514B92}" name="FamiliarSkillId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,28 +1088,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="2"/>
+    <col min="13" max="16384" width="8.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1236,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1">
         <v>1.5</v>
@@ -1257,7 +1273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
         <v>1.5</v>
@@ -1339,7 +1355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1358,6 +1374,9 @@
       <c r="F7" s="1">
         <v>0.5</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="1">
         <v>1.5</v>
       </c>
@@ -1377,7 +1396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1396,6 +1415,9 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="1">
         <v>1.5</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1434,6 +1456,9 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
@@ -1453,27 +1478,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H10" s="3"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H12" s="3"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H13" s="3"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1496,17 +1521,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1586,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1A6B2-FED8-4456-8217-F26CD34F6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BF281-EF7C-4A61-AAEA-62F3E0BDE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>ALL</t>
   </si>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>14000, 14001, 14004, 14005, 14006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/Summon_MiniFairy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,28 +1092,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.59765625" style="2"/>
+    <col min="13" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1472,33 +1476,33 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H10" s="3"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="3"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1518,20 +1522,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11002</v>
       </c>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BF281-EF7C-4A61-AAEA-62F3E0BDE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FF645-3122-40EB-8FC2-E2B3A8996DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>ALL</t>
   </si>
@@ -275,6 +275,38 @@
   </si>
   <si>
     <t>Skills/Summon_MiniFairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어비셜쇼크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운구체가 직선으로 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/AbyssalShockOBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람칼날이 직선으로 2개씩 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/TwinLeaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈리프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +789,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A3:M9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M11" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
@@ -794,9 +826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -834,7 +866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -940,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1082,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1364,40 +1396,40 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1">
         <v>1.5</v>
       </c>
       <c r="I7" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1405,40 +1437,40 @@
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1">
         <v>1.5</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1446,22 +1478,22 @@
         <v>10006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
@@ -1476,21 +1508,93 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="3"/>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FF645-3122-40EB-8FC2-E2B3A8996DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7CE9B-9D7E-47FB-A8F3-2B2A929FA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -826,9 +826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1124,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1625,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1707,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1727,7 +1727,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>10006</v>
+        <v>10008</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7CE9B-9D7E-47FB-A8F3-2B2A929FA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4F4DD-8C8F-461F-A7F6-7DDA4DECB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>ALL</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>겹겹이 몰려오는 적을 뚫을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +303,26 @@
   </si>
   <si>
     <t>트윈리프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통하는 단일피해 투사체가 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/IceArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤드스프레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 투사체가 날아갑니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +805,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A3:M11" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
@@ -826,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1124,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1163,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1165,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1177,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
@@ -1200,31 +1216,31 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1241,16 +1257,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -1259,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1279,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1288,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1">
         <v>1.5</v>
@@ -1303,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1320,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>1.7</v>
@@ -1329,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1344,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1355,13 +1371,13 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1370,7 +1386,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1">
         <v>1.5</v>
@@ -1385,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1396,14 +1412,14 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1">
         <v>1.5</v>
@@ -1426,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1437,13 +1453,13 @@
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1452,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1">
         <v>1.5</v>
@@ -1467,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1478,13 +1494,13 @@
         <v>10006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1493,25 +1509,25 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
       <c r="I9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
         <v>12</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1519,22 +1535,22 @@
         <v>10007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1">
         <v>1.5</v>
@@ -1549,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1560,13 +1576,13 @@
         <v>10008</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1575,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>1.5</v>
@@ -1590,16 +1606,52 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="A12" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -1625,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1641,13 +1693,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1670,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1687,16 +1739,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,10 +1756,10 @@
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1724,10 +1776,10 @@
         <v>11002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4F4DD-8C8F-461F-A7F6-7DDA4DECB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132D177-E262-486C-8B6E-602B068EAE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>ALL</t>
   </si>
@@ -323,6 +323,22 @@
   </si>
   <si>
     <t>얼음 투사체가 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크니스오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 피해를 가하는 검은 구체를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/DarknessOrb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A3:M12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M13" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
@@ -1141,7 +1157,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1535,40 +1551,40 @@
         <v>10007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1576,22 +1592,22 @@
         <v>10008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1">
         <v>1.5</v>
@@ -1606,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1617,10 +1633,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1632,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1">
         <v>1.5</v>
@@ -1647,16 +1663,52 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="A13" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H14" s="3"/>
@@ -1678,7 +1730,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1779,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132D177-E262-486C-8B6E-602B068EAE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF17EE-89C4-432F-9F49-7966417D2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>ALL</t>
   </si>
@@ -339,6 +339,22 @@
   </si>
   <si>
     <t>SPUM/0_Flat/Icon_Flat__35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포이즌미스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 피해를 가하는 유독성 탄환을 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/PoisonMist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,14 +381,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7030A0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -401,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,8 +826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A3:M13" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
@@ -1156,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1592,40 +1597,40 @@
         <v>10008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F11" s="1">
         <v>0.5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1633,22 +1638,22 @@
         <v>10009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1">
         <v>1.5</v>
@@ -1663,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1674,10 +1679,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
@@ -1689,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1">
         <v>1.5</v>
@@ -1704,16 +1709,52 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="A14" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1729,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1852,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1831,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF17EE-89C4-432F-9F49-7966417D2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DC643-D0C6-4B55-8AD8-C2DB61A3EA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>ALL</t>
   </si>
@@ -355,6 +355,26 @@
   </si>
   <si>
     <t>Skills/PoisonMist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개의 투사체가 일정 시간마다 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/SOSBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outside</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +846,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A3:M14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:M15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:M15" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="19"/>
@@ -1159,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1679,40 +1699,40 @@
         <v>10010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1">
         <v>1.5</v>
       </c>
       <c r="I13" s="1">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1">
         <v>12</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1720,10 +1740,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
@@ -1735,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1">
         <v>1.5</v>
@@ -1750,9 +1770,50 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1770,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1872,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_Advence-main\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF17EE-89C4-432F-9F49-7966417D2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085E9AE-9C14-4986-89DE-62E4735E8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="6150" yWindow="3120" windowWidth="29715" windowHeight="17880" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -863,9 +863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -903,7 +903,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1009,7 +1009,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1360,10 +1360,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>56</v>
@@ -1401,10 +1401,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>57</v>
@@ -1524,7 +1524,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="1">
         <v>0.5</v>
@@ -1565,7 +1565,7 @@
         <v>78</v>
       </c>
       <c r="E10" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>0.5</v>
@@ -1606,7 +1606,7 @@
         <v>81</v>
       </c>
       <c r="E11" s="1">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F11" s="1">
         <v>0.5</v>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>59</v>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F1005-E424-4490-B83A-F7BAB1A97C24}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085E9AE-9C14-4986-89DE-62E4735E8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED7E78D-A2E0-472A-A802-7DA09E890B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3120" windowWidth="29715" windowHeight="17880" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="2910" yWindow="2820" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파이어볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이스애로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화염구를 날릴 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거리가 먼 적을 처치할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고스트나이트 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니페어리 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skills/Summon_GhostKnight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정 시간 뒤 범위에 공격을 가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Waterballoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어두운구체가 직선으로 날아갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람칼날이 직선으로 2개씩 날아갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skills/TwinLeaf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관통하는 단일피해 투사체가 날아갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,18 +286,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼음 투사체가 날아갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다크니스오브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위 피해를 가하는 검은 구체를 날립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skills/DarknessOrb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,15 +302,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위 피해를 가하는 유독성 탄환을 날립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skills/PoisonMist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 피해를 입히는 화염구를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격빈도가 낮지만 사거리가 매우 긴 번개를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약하지만 빠르게 속사하는 얼음 파편 투사체를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리고 사거리가 짧지만 강력한 어둠 구체를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2발씩 날아가 공격을 가하는 바람칼날을 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리가 길고 관통하는 냉기 화살을 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리고 짧지만 강력한 범위 피해를 가하는 구체를 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닿으면 범위 피해를 가하는 유독성 탄환을 날립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 전방에 물폭탄을 떨어뜨려 범위 피해를 가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 희생하며 공격하는 기사를 소환하여 돌진시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간 맵에 머무르며 공격하는 부하를 소환합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,14 +1162,14 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
@@ -1184,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
@@ -1228,40 +1228,40 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1269,25 +1269,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1310,28 +1310,28 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1">
         <v>1.5</v>
       </c>
       <c r="I4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
@@ -1340,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1351,40 +1351,40 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1392,40 +1392,40 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1">
         <v>1.5</v>
       </c>
       <c r="I6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1433,40 +1433,40 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1">
         <v>1.5</v>
       </c>
       <c r="I7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1474,28 +1474,28 @@
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1">
         <v>1.5</v>
       </c>
       <c r="I8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1">
         <v>10</v>
@@ -1504,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,13 +1515,13 @@
         <v>10006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1">
         <v>1.5</v>
@@ -1530,13 +1530,13 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
       <c r="I9" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
         <v>12</v>
@@ -1545,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1556,40 +1556,40 @@
         <v>10007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1597,13 +1597,13 @@
         <v>10008</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
         <v>1.3</v>
@@ -1612,25 +1612,25 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1638,28 +1638,28 @@
         <v>10009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1">
         <v>1.5</v>
       </c>
       <c r="I12" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1668,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1679,22 +1679,22 @@
         <v>10010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>1.5</v>
@@ -1709,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1720,22 +1720,22 @@
         <v>10011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1">
         <v>1.5</v>
@@ -1750,10 +1750,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1786,13 +1786,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1829,19 +1829,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>10010</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -1869,7 +1869,7 @@
         <v>11002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>10011</v>

--- a/Assets/ExcelDatas/SkillData.xlsx
+++ b/Assets/ExcelDatas/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED7E78D-A2E0-472A-A802-7DA09E890B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C742A3C-72FB-4C2E-B92B-376B0891785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2820" windowWidth="20595" windowHeight="13260" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="3" r:id="rId1"/>
@@ -1162,27 +1162,27 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="2"/>
+    <col min="13" max="16384" width="8.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>0.1</v>
@@ -1469,7 +1469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>10007</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="1">
         <v>0.05</v>
@@ -1592,7 +1592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10008</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10009</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10010</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>10011</v>
       </c>
@@ -1774,17 +1774,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>11002</v>
       </c>
